--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hangliu/sei-course/project2/Auto-Quote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC5BBC6-C868-9248-BAAF-51436265EF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5998BC7F-1F7D-0C46-9FEC-18849AA18277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2840" yWindow="1360" windowWidth="25960" windowHeight="11640" xr2:uid="{D745A363-EDEF-F447-9E4D-A32AB2FF0A36}"/>
   </bookViews>
@@ -59,13 +59,13 @@
     <t>valid_date</t>
   </si>
   <si>
-    <t>American Airline</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Perth</t>
+    <t>Air China</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Sydney</t>
   </si>
 </sst>
 </file>
@@ -465,13 +465,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="D2" s="1">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -480,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="3">
-        <v>44895</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
